--- a/individual_results/avey/414.xlsx
+++ b/individual_results/avey/414.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="C2" t="n">
         <v>0.2</v>
@@ -576,7 +576,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K2" t="n">
         <v>0.3333333333333333</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
         <v>0.5</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C4" t="n">
         <v>0.2857142857142858</v>
@@ -718,7 +718,7 @@
         <v>0.8</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.8</v>
       </c>
       <c r="K4" t="n">
         <v>0.4</v>
@@ -728,7 +728,7 @@
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307692</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C5" t="n">
         <v>0.3846153846153846</v>
@@ -771,7 +771,7 @@
         <v>0.9090909090909091</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7692307692307692</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="K5" t="n">
         <v>0.4545454545454545</v>
@@ -781,7 +781,7 @@
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9344133571786</v>
+        <v>0.52129602861432</v>
       </c>
       <c r="C6" t="n">
         <v>0.3558398982930783</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9639404333166532</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>2.5</v>
@@ -1167,7 +1167,7 @@
         <v>1.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K11" t="n">
         <v>1.5</v>
